--- a/sample/a.xlsx
+++ b/sample/a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DEV\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DEV\MeXEL\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F7C3FC-B1FC-4086-A6D8-628FF85FB58C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCB22DF-812C-4BC9-A16B-4BC2310F7810}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="2" xr2:uid="{FEA24CDA-DD20-4BF5-8D1D-587CC425EED3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{FEA24CDA-DD20-4BF5-8D1D-587CC425EED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,12 +83,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -97,8 +112,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -415,251 +433,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C26FDD1-F973-4FBE-B34D-D771BB93598B}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
         <v>7</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
         <v>7</v>
       </c>
-      <c r="G7">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
         <v>8</v>
       </c>
-      <c r="E8">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
         <v>8</v>
       </c>
-      <c r="G8">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
         <v>9</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <v>9</v>
       </c>
-      <c r="G9">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
         <v>10</v>
       </c>
-      <c r="E10">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
         <v>10</v>
       </c>
-      <c r="G10">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
         <v>11</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
         <v>11</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
         <v>12</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
         <v>12</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
         <v>13</v>
       </c>
-      <c r="E13">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
         <v>13</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
         <v>14</v>
       </c>
-      <c r="E14">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
         <v>14</v>
       </c>
-      <c r="G14">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
         <v>14</v>
       </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -966,293 +1086,341 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EAF359-F33F-4BB4-A557-DA414A91F724}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
